--- a/biology/Médecine/Nise_da_Silveira/Nise_da_Silveira.xlsx
+++ b/biology/Médecine/Nise_da_Silveira/Nise_da_Silveira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nise da Silveira, née le 15 février 1905 à Maceió et morte le 30 octobre 1999 à Rio de Janeiro, au Brésil, est une femme médecin et psychiatre brésilienne.
-Elle était élève de Carl Jung[1] et s'est toujours opposée aux traitements psychiatriques agressifs comme l'électroconvulsivothérapie, l'insulinothérapie et la lobotomie.
+Elle était élève de Carl Jung et s'est toujours opposée aux traitements psychiatriques agressifs comme l'électroconvulsivothérapie, l'insulinothérapie et la lobotomie.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Maceió dans une famille aisée (son père était journaliste au Jornal de Alagoas[2]), Nise da Silveira étudie au Colégio Santíssimo Sacramento[3].
-De 1921 à 1926, elle étudie la médecine à Salvador de Bahia et, à la réception de son diplôme, elle est la seule femme au milieu de 157 hommes[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Maceió dans une famille aisée (son père était journaliste au Jornal de Alagoas), Nise da Silveira étudie au Colégio Santíssimo Sacramento.
+De 1921 à 1926, elle étudie la médecine à Salvador de Bahia et, à la réception de son diplôme, elle est la seule femme au milieu de 157 hommes.
 Elle déménage à Rio de Janeiro et travaille au Serviço de Assistência a Psicopatas e Profilaxia Mental à l'hôpital de Praia Vermelha en 1933. Elle est dénoncée par une infirmière pour être en possession de livres de Karl Marx et elle est emprisonnée. Elle vit en semi-clandestinité avec son mari, Mário Magalhães da Silveira, médecin lui aussi (ils resteront ensemble jusqu'à sa mort, en 1986), et elle écrit les Cartas à Spinoza (Lettres à Spinoza), qu'elle peut publier seulement en 1955.
-En 1952, elle fonde le Museu de Imagens do Inconsciente[5] à Rio de Janeiro : un centre de recherches pour conserver les œuvres des patients, en tant que documents pouvant améliorer la compréhension du monde intérieur des schizophrènes. Quelques années plus tard, elle met en forme un projet révolutionnaire pour l'époque, la Casa das Palmeiras (Maison des Palmiers), une clinique de réhabilitation pour malades psychiatriques graves. Les malades étaient considérés comme des visiteurs (venant de l'extérieur), faisant des étapes pour se réinsérer complètement dans la société[6],[7].
+En 1952, elle fonde le Museu de Imagens do Inconsciente à Rio de Janeiro : un centre de recherches pour conserver les œuvres des patients, en tant que documents pouvant améliorer la compréhension du monde intérieur des schizophrènes. Quelques années plus tard, elle met en forme un projet révolutionnaire pour l'époque, la Casa das Palmeiras (Maison des Palmiers), une clinique de réhabilitation pour malades psychiatriques graves. Les malades étaient considérés comme des visiteurs (venant de l'extérieur), faisant des étapes pour se réinsérer complètement dans la société,.
 « A Casa das Palmeiras è um pequeno território livre. »
 « La Maison des Palmiers est un petit territoire libre. »
 — Nise da Silveira
@@ -550,7 +564,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de l'ordre du Rio Branco, ministère des Relations extérieures, (Brésil), 1987
 Première personnalité de l’année 1992, Associação Brasileira de Críticos de Arte (Association brésilienne de critique des arts)
@@ -583,7 +599,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jung : vida e obra,  Rio de Janeiro, José Álvaro Ed., 1968
 Imagens do inconsciente, Rio de Janeiro, Alhambra, 1981
@@ -619,7 +637,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Son œuvre a suscité la création de plusieurs musées, centres et instituts, comme :
 au Brésil
